--- a/medicine/Psychotrope/Domaine_de_la_Grange-Charton/Domaine_de_la_Grange-Charton.xlsx
+++ b/medicine/Psychotrope/Domaine_de_la_Grange-Charton/Domaine_de_la_Grange-Charton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Domaine de la Grange-Charton est un domaine viticole beaujolais dont les bâtiments sont situés sur la commune de Régnié-Durette dans le Rhône. Ce domaine est la propriété des Hospices de Beaujeu.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au fil des donations, le domaine a reçu de nombreuses terres agricoles et forestières ainsi que des bâtiments.
 </t>
@@ -543,9 +557,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par arrêté du 27 juillet 1994, les logements collectifs de vignerons et bâtiments d'exploitation du domaine sont inscrits au titre des monuments historiques[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par arrêté du 27 juillet 1994, les logements collectifs de vignerons et bâtiments d'exploitation du domaine sont inscrits au titre des monuments historiques.
 </t>
         </is>
       </c>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vignes
-Le domaine est aujourd'hui composé de 81 hectares de vignes réparties sur les communes de : Régnié-Durette, Cercié, Villié-Morgon, Lantignié, Marchampt, Beaujeu.
-Vins
-Le Domaine de la Grange-Charton produit des vins de quatre appellations d'origine contrôlée, le beaujolais-villages et trois crus : le régnié, le brouilly et le morgon.
+          <t>Vignes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le domaine est aujourd'hui composé de 81 hectares de vignes réparties sur les communes de : Régnié-Durette, Cercié, Villié-Morgon, Lantignié, Marchampt, Beaujeu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Domaine_de_la_Grange-Charton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Domaine_de_la_Grange-Charton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vignes et vins</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Domaine de la Grange-Charton produit des vins de quatre appellations d'origine contrôlée, le beaujolais-villages et trois crus : le régnié, le brouilly et le morgon.
 </t>
         </is>
       </c>
